--- a/static/templates/IT_Training_Budget_Estimates.xlsx
+++ b/static/templates/IT_Training_Budget_Estimates.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Information Technology Comprehensive Budget - User Guide &amp; Instructions</t>
+          <t>Artificial Intelligence and Machine Learning Comprehensive Budget - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
@@ -683,7 +682,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
@@ -793,7 +791,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
@@ -850,7 +847,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
@@ -955,7 +951,6 @@
         </is>
       </c>
     </row>
-    <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
@@ -1012,12 +1007,10 @@
         </is>
       </c>
     </row>
-    <row r="54"/>
-    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>📋 INFORMATION TECHNOLOGY PROJECT OVERVIEW</t>
+          <t>📋 ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING PROJECT OVERVIEW</t>
         </is>
       </c>
     </row>
@@ -1053,11 +1046,10 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>IT Managers, DevOps Engineers, AI Architects, DevOps Engineers...</t>
-        </is>
-      </c>
-    </row>
-    <row r="60"/>
+          <t>Data Scientists, ML Engineers, AI Architects, DevOps Engineers...</t>
+        </is>
+      </c>
+    </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
@@ -1157,11 +1149,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Information Technology - Executive Budget Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Executive Budget Summary</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
@@ -1198,7 +1189,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
@@ -1395,11 +1385,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Resources Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Resources Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1435,7 +1424,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>IT Managers</t>
+          <t>Data Scientists</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
@@ -1458,7 +1447,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>DevOps Engineers</t>
+          <t>ML Engineers</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
@@ -1550,7 +1539,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>System Administrators</t>
+          <t>Business Analysts</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
@@ -1593,7 +1582,6 @@
         <v/>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -1636,11 +1624,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Logistics Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Logistics Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1748,7 +1735,6 @@
         <v/>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -1791,11 +1777,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Technology Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Technology Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1920,7 +1905,6 @@
         <v/>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
@@ -1963,11 +1947,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Training Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Training Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1993,7 +1976,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>IT Certification Programs</t>
+          <t>AI/ML Certification Programs</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
@@ -2075,7 +2058,6 @@
         <v/>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -2118,11 +2100,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Contingency Budget</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Contingency Budget</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -2161,7 +2142,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
@@ -2257,7 +2237,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -2269,7 +2248,6 @@
         <v/>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
         <is>
@@ -2332,11 +2310,10 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Information Technology - Budget Timeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Artificial Intelligence and Machine Learning - Budget Timeline</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>

--- a/static/templates/IT_Training_Budget_Estimates.xlsx
+++ b/static/templates/IT_Training_Budget_Estimates.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning Comprehensive Budget - User Guide &amp; Instructions</t>
+          <t>Information Technology Comprehensive Budget - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -579,6 +579,7 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
@@ -682,6 +683,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
@@ -791,6 +793,7 @@
         </is>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
@@ -847,6 +850,7 @@
         </is>
       </c>
     </row>
+    <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
@@ -951,6 +955,7 @@
         </is>
       </c>
     </row>
+    <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
@@ -1007,10 +1012,12 @@
         </is>
       </c>
     </row>
+    <row r="54"/>
+    <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>📋 ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING PROJECT OVERVIEW</t>
+          <t>📋 INFORMATION TECHNOLOGY PROJECT OVERVIEW</t>
         </is>
       </c>
     </row>
@@ -1046,10 +1053,11 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Data Scientists, ML Engineers, AI Architects, DevOps Engineers...</t>
-        </is>
-      </c>
-    </row>
+          <t>IT Managers, DevOps Engineers, AI Architects, DevOps Engineers...</t>
+        </is>
+      </c>
+    </row>
+    <row r="60"/>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
@@ -1149,10 +1157,11 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Executive Budget Summary</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Executive Budget Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
@@ -1189,6 +1198,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
@@ -1385,10 +1395,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Resources Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Resources Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1424,7 +1435,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
@@ -1447,7 +1458,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>ML Engineers</t>
+          <t>DevOps Engineers</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
@@ -1539,7 +1550,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="B9" s="12" t="n">
@@ -1582,6 +1593,7 @@
         <v/>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -1624,10 +1636,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Logistics Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Logistics Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1735,6 +1748,7 @@
         <v/>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -1777,10 +1791,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Technology Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Technology Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1905,6 +1920,7 @@
         <v/>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
@@ -1947,10 +1963,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Training Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Training Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -1976,7 +1993,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AI/ML Certification Programs</t>
+          <t>IT Certification Programs</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
@@ -2058,6 +2075,7 @@
         <v/>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
@@ -2100,10 +2118,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Contingency Budget</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Contingency Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
@@ -2142,6 +2161,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
@@ -2237,6 +2257,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
@@ -2248,6 +2269,7 @@
         <v/>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
         <is>
@@ -2310,10 +2332,11 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning - Budget Timeline</t>
-        </is>
-      </c>
-    </row>
+          <t>Information Technology - Budget Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
